--- a/secondary_data.xlsx
+++ b/secondary_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AU\lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AU\lab\Group_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF32761-EA12-4042-9CD2-1F44DB03EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B39889-CDDC-47E9-8F82-0129B787854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{B50A603F-E7B4-480A-A63A-9D1A5959F2BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B50A603F-E7B4-480A-A63A-9D1A5959F2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>sequential_rt</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>no.</t>
+  </si>
+  <si>
+    <t>seq_mean</t>
+  </si>
+  <si>
+    <t>ran_mean</t>
   </si>
 </sst>
 </file>
@@ -12290,15 +12296,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6A96BE-5776-4238-A11D-34249203FBE3}">
-  <dimension ref="B1:D129"/>
+  <dimension ref="B1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D129" sqref="D2:D129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -12309,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12319,8 +12325,14 @@
       <c r="D2">
         <v>0.31091859999999999</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -12330,8 +12342,16 @@
       <c r="D3">
         <v>0.37552720000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>GEOMEAN(C2:C127)</f>
+        <v>0.42503281406732274</v>
+      </c>
+      <c r="G3">
+        <f>GEOMEAN(D2:D129)</f>
+        <v>0.38718111364555768</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -12342,7 +12362,7 @@
         <v>0.32390449999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -12353,7 +12373,7 @@
         <v>0.3576703</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -12364,7 +12384,7 @@
         <v>0.3200847</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -12375,7 +12395,7 @@
         <v>0.28107880000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -12386,7 +12406,7 @@
         <v>0.31018059999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -12397,7 +12417,7 @@
         <v>0.34884910000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -12408,7 +12428,7 @@
         <v>0.36040650000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -12419,7 +12439,7 @@
         <v>0.35188659999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -12430,7 +12450,7 @@
         <v>0.34068910000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -12441,7 +12461,7 @@
         <v>0.3992694</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -12452,7 +12472,7 @@
         <v>0.34396700000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -12463,7 +12483,7 @@
         <v>0.33121440000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -13713,21 +13733,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA01C83B-7827-4A7C-99DE-D3D093D68044}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C129" sqref="C2:C129"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13738,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13748,8 +13769,14 @@
       <c r="C2">
         <v>0.30974709999827599</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13759,8 +13786,16 @@
       <c r="C3">
         <v>0.31308759999774299</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>GEOMEAN(B2:B128)</f>
+        <v>0.44667998267952103</v>
+      </c>
+      <c r="F3">
+        <f>GEOMEAN(C2:C129)</f>
+        <v>0.51612103429004486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13771,7 +13806,7 @@
         <v>0.53197899999941001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13782,7 +13817,7 @@
         <v>0.34266629999910903</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13793,7 +13828,7 @@
         <v>0.48132179999993202</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13804,7 +13839,7 @@
         <v>0.45687379999981198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13815,7 +13850,7 @@
         <v>0.58333979999952101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13826,7 +13861,7 @@
         <v>0.38522480000028703</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13837,7 +13872,7 @@
         <v>0.58742259999962698</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13848,7 +13883,7 @@
         <v>0.57637319999957903</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13859,7 +13894,7 @@
         <v>0.70594509999864297</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13870,7 +13905,7 @@
         <v>0.36308810000082298</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13881,7 +13916,7 @@
         <v>0.43468079999911402</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13892,7 +13927,7 @@
         <v>0.389043699999092</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15145,21 +15180,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1733D80D-C603-40FB-9160-B2FE7708FAD2}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -15170,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15181,7 +15217,7 @@
         <v>0.86858889999893996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15191,8 +15227,14 @@
       <c r="C3">
         <v>0.92226479999953803</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15202,8 +15244,16 @@
       <c r="C4">
         <v>1.34071539999786</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>GEOMEAN(B2:B54)</f>
+        <v>0.77596702581910326</v>
+      </c>
+      <c r="G4">
+        <f>GEOMEAN(C2:C33)</f>
+        <v>0.57008803158345234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15214,7 +15264,7 @@
         <v>0.38079539999853201</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15225,7 +15275,7 @@
         <v>1.06516699999883</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15236,7 +15286,7 @@
         <v>1.07462789999954</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15247,7 +15297,7 @@
         <v>1.3491852999995899</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15258,7 +15308,7 @@
         <v>0.53855540000040403</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15269,7 +15319,7 @@
         <v>0.47453599999789697</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15280,7 +15330,7 @@
         <v>0.29643930000020102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15291,7 +15341,7 @@
         <v>0.56130179999854501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15302,7 +15352,7 @@
         <v>1.67510609999953</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15313,7 +15363,7 @@
         <v>0.61090939999849003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15324,7 +15374,7 @@
         <v>1.8420434999988999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15692,21 +15742,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36FA1B6-1814-4D61-86A2-4A324B44DA28}">
-  <dimension ref="A1:C307"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -15717,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15727,8 +15778,14 @@
       <c r="C2">
         <v>0.31091859999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15738,8 +15795,16 @@
       <c r="C3">
         <v>0.37552720000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f>GEOMEAN(B2:B307)</f>
+        <v>0.48156526621224732</v>
+      </c>
+      <c r="G3">
+        <f>GEOMEAN(C2:C289)</f>
+        <v>0.45926907384051291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15750,7 +15815,7 @@
         <v>0.32390449999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15761,7 +15826,7 @@
         <v>0.3576703</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15772,7 +15837,7 @@
         <v>0.3200847</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15783,7 +15848,7 @@
         <v>0.28107880000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15794,7 +15859,7 @@
         <v>0.31018059999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15805,7 +15870,7 @@
         <v>0.34884910000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15816,7 +15881,7 @@
         <v>0.36040650000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15827,7 +15892,7 @@
         <v>0.35188659999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15838,7 +15903,7 @@
         <v>0.34068910000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15849,7 +15914,7 @@
         <v>0.3992694</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15860,7 +15925,7 @@
         <v>0.34396700000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15871,7 +15936,7 @@
         <v>0.33121440000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19031,6 +19096,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>